--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.44337896692771</v>
+        <v>11.905615</v>
       </c>
       <c r="H2">
-        <v>5.44337896692771</v>
+        <v>35.716845</v>
       </c>
       <c r="I2">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="J2">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.157197849101672</v>
+        <v>0.1532026666666667</v>
       </c>
       <c r="N2">
-        <v>0.157197849101672</v>
+        <v>0.459608</v>
       </c>
       <c r="O2">
-        <v>0.0440230590865162</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="P2">
-        <v>0.0440230590865162</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="Q2">
-        <v>0.8556874654463175</v>
+        <v>1.823971966306667</v>
       </c>
       <c r="R2">
-        <v>0.8556874654463175</v>
+        <v>16.41574769676</v>
       </c>
       <c r="S2">
-        <v>0.03001288594435613</v>
+        <v>0.03225809310656693</v>
       </c>
       <c r="T2">
-        <v>0.03001288594435613</v>
+        <v>0.03225809310656693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.44337896692771</v>
+        <v>11.905615</v>
       </c>
       <c r="H3">
-        <v>5.44337896692771</v>
+        <v>35.716845</v>
       </c>
       <c r="I3">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="J3">
-        <v>0.6817537573973083</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.41360918620088</v>
+        <v>0.1693566666666667</v>
       </c>
       <c r="N3">
-        <v>3.41360918620088</v>
+        <v>0.50807</v>
       </c>
       <c r="O3">
-        <v>0.9559769409134837</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="P3">
-        <v>0.9559769409134837</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="Q3">
-        <v>18.58156844547709</v>
+        <v>2.016295271016667</v>
       </c>
       <c r="R3">
-        <v>18.58156844547709</v>
+        <v>18.14665743915</v>
       </c>
       <c r="S3">
-        <v>0.6517408714529521</v>
+        <v>0.03565945189085799</v>
       </c>
       <c r="T3">
-        <v>0.6517408714529521</v>
+        <v>0.03565945189085799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.60147836202672</v>
+        <v>11.905615</v>
       </c>
       <c r="H4">
-        <v>1.60147836202672</v>
+        <v>35.716845</v>
       </c>
       <c r="I4">
-        <v>0.2005764980420667</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="J4">
-        <v>0.2005764980420667</v>
+        <v>0.8197078149061106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.157197849101672</v>
+        <v>3.570461333333333</v>
       </c>
       <c r="N4">
-        <v>0.157197849101672</v>
+        <v>10.711384</v>
       </c>
       <c r="O4">
-        <v>0.0440230590865162</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="P4">
-        <v>0.0440230590865162</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="Q4">
-        <v>0.2517489538934692</v>
+        <v>42.50853800705332</v>
       </c>
       <c r="R4">
-        <v>0.2517489538934692</v>
+        <v>382.5768420634799</v>
       </c>
       <c r="S4">
-        <v>0.008829991024672404</v>
+        <v>0.7517902699086857</v>
       </c>
       <c r="T4">
-        <v>0.008829991024672404</v>
+        <v>0.7517902699086857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.60147836202672</v>
+        <v>1.63134</v>
       </c>
       <c r="H5">
-        <v>1.60147836202672</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="J5">
-        <v>0.2005764980420667</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.41360918620088</v>
+        <v>0.1532026666666667</v>
       </c>
       <c r="N5">
-        <v>3.41360918620088</v>
+        <v>0.459608</v>
       </c>
       <c r="O5">
-        <v>0.9559769409134837</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="P5">
-        <v>0.9559769409134837</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="Q5">
-        <v>5.46682124811635</v>
+        <v>0.24992563824</v>
       </c>
       <c r="R5">
-        <v>5.46682124811635</v>
+        <v>2.24933074416</v>
       </c>
       <c r="S5">
-        <v>0.1917465070173943</v>
+        <v>0.004420092335294471</v>
       </c>
       <c r="T5">
-        <v>0.1917465070173943</v>
+        <v>0.004420092335294471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.939519592866408</v>
+        <v>1.63134</v>
       </c>
       <c r="H6">
-        <v>0.939519592866408</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.1176697445606251</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="J6">
-        <v>0.1176697445606251</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.157197849101672</v>
+        <v>0.1693566666666667</v>
       </c>
       <c r="N6">
-        <v>0.157197849101672</v>
+        <v>0.50807</v>
       </c>
       <c r="O6">
-        <v>0.0440230590865162</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="P6">
-        <v>0.0440230590865162</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="Q6">
-        <v>0.1476904591874779</v>
+        <v>0.2762783046</v>
       </c>
       <c r="R6">
-        <v>0.1476904591874779</v>
+        <v>2.4865047414</v>
       </c>
       <c r="S6">
-        <v>0.005180182117487666</v>
+        <v>0.004886155838873697</v>
       </c>
       <c r="T6">
-        <v>0.005180182117487666</v>
+        <v>0.004886155838873697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.939519592866408</v>
+        <v>1.63134</v>
       </c>
       <c r="H7">
-        <v>0.939519592866408</v>
+        <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.1176697445606251</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="J7">
-        <v>0.1176697445606251</v>
+        <v>0.1123186115768849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.41360918620088</v>
+        <v>3.570461333333333</v>
       </c>
       <c r="N7">
-        <v>3.41360918620088</v>
+        <v>10.711384</v>
       </c>
       <c r="O7">
-        <v>0.9559769409134837</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="P7">
-        <v>0.9559769409134837</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="Q7">
-        <v>3.207152712824481</v>
+        <v>5.824636391519999</v>
       </c>
       <c r="R7">
-        <v>3.207152712824481</v>
+        <v>52.42172752367999</v>
       </c>
       <c r="S7">
-        <v>0.1124895624431374</v>
+        <v>0.1030123634027167</v>
       </c>
       <c r="T7">
-        <v>0.1124895624431374</v>
+        <v>0.1030123634027167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9872630000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.961789</v>
+      </c>
+      <c r="I8">
+        <v>0.0679735735170045</v>
+      </c>
+      <c r="J8">
+        <v>0.0679735735170045</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1532026666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.459608</v>
+      </c>
+      <c r="O8">
+        <v>0.03935316038222934</v>
+      </c>
+      <c r="P8">
+        <v>0.03935316038222934</v>
+      </c>
+      <c r="Q8">
+        <v>0.1512513243013334</v>
+      </c>
+      <c r="R8">
+        <v>1.361261918712</v>
+      </c>
+      <c r="S8">
+        <v>0.002674974940367935</v>
+      </c>
+      <c r="T8">
+        <v>0.002674974940367935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9872630000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.961789</v>
+      </c>
+      <c r="I9">
+        <v>0.0679735735170045</v>
+      </c>
+      <c r="J9">
+        <v>0.0679735735170045</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1693566666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.50807</v>
+      </c>
+      <c r="O9">
+        <v>0.04350263745496</v>
+      </c>
+      <c r="P9">
+        <v>0.04350263745496</v>
+      </c>
+      <c r="Q9">
+        <v>0.1671995708033334</v>
+      </c>
+      <c r="R9">
+        <v>1.50479613723</v>
+      </c>
+      <c r="S9">
+        <v>0.002957029725228317</v>
+      </c>
+      <c r="T9">
+        <v>0.002957029725228317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9872630000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.961789</v>
+      </c>
+      <c r="I10">
+        <v>0.0679735735170045</v>
+      </c>
+      <c r="J10">
+        <v>0.0679735735170045</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.570461333333333</v>
+      </c>
+      <c r="N10">
+        <v>10.711384</v>
+      </c>
+      <c r="O10">
+        <v>0.9171442021628107</v>
+      </c>
+      <c r="P10">
+        <v>0.9171442021628107</v>
+      </c>
+      <c r="Q10">
+        <v>3.524984367330667</v>
+      </c>
+      <c r="R10">
+        <v>31.724859305976</v>
+      </c>
+      <c r="S10">
+        <v>0.06234156885140825</v>
+      </c>
+      <c r="T10">
+        <v>0.06234156885140825</v>
       </c>
     </row>
   </sheetData>
